--- a/計画/環境構築.xlsx
+++ b/計画/環境構築.xlsx
@@ -1,29 +1,38 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\合宿\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\合宿\repos\giri-choco\計画\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{663D904C-4998-43C0-810F-933E380DC5AE}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F1FBC0EB-6A0A-42A9-AE53-4940DCDBB212}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{F5045DCC-C9DB-410F-81C8-8662CDF2811A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="2" activeTab="5" xr2:uid="{F5045DCC-C9DB-410F-81C8-8662CDF2811A}"/>
   </bookViews>
   <sheets>
     <sheet name="概要" sheetId="3" r:id="rId1"/>
     <sheet name="①Visual Studio Codeのインストール" sheetId="1" r:id="rId2"/>
     <sheet name="②Anacondaのインストール " sheetId="2" r:id="rId3"/>
-    <sheet name="gitHubとの連携" sheetId="5" r:id="rId4"/>
-    <sheet name="git bashの連携" sheetId="4" r:id="rId5"/>
+    <sheet name="③TensorFlowのインストール" sheetId="6" r:id="rId4"/>
+    <sheet name="④画像検索" sheetId="8" r:id="rId5"/>
+    <sheet name="Sheet1" sheetId="10" r:id="rId6"/>
+    <sheet name="gitHubとの連携" sheetId="5" r:id="rId7"/>
+    <sheet name="git bashの連携" sheetId="4" r:id="rId8"/>
+    <sheet name="gitHubのコミット" sheetId="7" r:id="rId9"/>
+    <sheet name="メモ" sheetId="9" r:id="rId10"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'①Visual Studio Codeのインストール'!$A$1:$AR$236</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">'②Anacondaのインストール '!$A$1:$AR$360</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="4">'git bashの連携'!$A$1:$AR$89</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="3">gitHubとの連携!$A$1:$AR$229</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">③TensorFlowのインストール!$A$1:$AR$170</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="4">④画像検索!$A$1:$AR$171</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="7">'git bashの連携'!$A$1:$AR$89</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="6">gitHubとの連携!$A$1:$AR$229</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="8">gitHubのコミット!$A$1:$AR$157</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="5">Sheet1!$A$1:$BE$195</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">概要!$A$1:$AR$90</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
@@ -31,12 +40,17 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="138">
   <si>
     <t>■「Visual Studio Code」をダウンロード、インストール</t>
   </si>
@@ -336,10 +350,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>つ</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>次に、gitHubと連携</t>
     <rPh sb="0" eb="1">
       <t>ツギ</t>
@@ -431,6 +441,638 @@
   </si>
   <si>
     <t>git clone https://github.com/fiveEight/giri-choco.git</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>・</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>・TensorFlowのダウンロード、インストール</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>gitHubのプッシュ（コミット）方法は「gitHubのコミット」シートを参照。</t>
+    <rPh sb="17" eb="19">
+      <t>ホウホウ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>サンショウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>※デフォルトの場合</t>
+    <rPh sb="7" eb="9">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>にあるAnaconda Promptを立ち上げる</t>
+    <rPh sb="19" eb="20">
+      <t>タ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>ア</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>C:\Users\ユーザー名\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\Anaconda3(64-bit)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>を実行。</t>
+    <rPh sb="1" eb="3">
+      <t>ジッコウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>conda install python=3.6.6</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>・Python3.6にダウングレードする必要がある。（TensorFlowがインストールできません）</t>
+    <rPh sb="20" eb="22">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>その後、Visual Studio CodeのターミナルよりVersionが3.6.6になっていたらOK</t>
+    <rPh sb="2" eb="3">
+      <t>ゴ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>TensorFlowをインストール</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>（続き）</t>
+    <rPh sb="1" eb="2">
+      <t>ツヅ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>以下のように、ダウンロードできたら成功</t>
+    <rPh sb="0" eb="2">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>セイコウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>■gitHubのコミット</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>gitHubのコミット方法を説明。</t>
+    <rPh sb="11" eb="13">
+      <t>ホウホウ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>セツメイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>手順例は、この手順書をプッシュする方法を記載</t>
+    <rPh sb="0" eb="2">
+      <t>テジュン</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="7" eb="10">
+      <t>テジュンショ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ホウホウ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>キサイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「ソース管理」のアイコンを押下し、プッシュを行う。</t>
+    <rPh sb="4" eb="6">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>オウカ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>上記でgitのコミット完了</t>
+    <rPh sb="0" eb="2">
+      <t>ジョウキ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>カンリョウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>gitHubのプッシュは、作業フォルダに移動してgit push</t>
+    <rPh sb="13" eb="15">
+      <t>サギョウ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>イドウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>bingのsearchAPIを用いて、画像をダウンロードします。</t>
+    <rPh sb="15" eb="16">
+      <t>モチ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ガゾウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>④画像検索</t>
+    <rPh sb="1" eb="3">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ケンサク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>・画像検索</t>
+    <rPh sb="1" eb="3">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ケンサク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>bingのsearchAPIを使用して、検索を行う。</t>
+    <rPh sb="15" eb="17">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>MicroSoftAzureに登録する必要がある。</t>
+    <rPh sb="15" eb="17">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>URLはここを参照</t>
+    <rPh sb="7" eb="9">
+      <t>サンショウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>https://qiita.com/ysdyt/items/49e99416079546b65dfc</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>※30日間は無料。APIのキーだけほしいので、課金は発生しません。</t>
+    <rPh sb="3" eb="5">
+      <t>ニチカン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ムリョウ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>カキン</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ハッセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>GitHubと連携して、MicroSoftのアカウントを連携できます。</t>
+    <rPh sb="7" eb="9">
+      <t>レンケイ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>レンケイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>git merge --allow-unrelated-histories origin/master</t>
+  </si>
+  <si>
+    <t>・ローカルのフォルダを指定できるファイルを別出しにする。</t>
+    <rPh sb="11" eb="13">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>ベツ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>ダ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>・Jsonデータに落とす。</t>
+    <rPh sb="9" eb="10">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>（環境変数？）</t>
+    <rPh sb="1" eb="3">
+      <t>カンキョウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ヘンスウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>・kerasの使い方とサンプル</t>
+    <rPh sb="7" eb="8">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>カタ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>■画像データの収集</t>
+    <rPh sb="1" eb="3">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>シュウシュウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>①Microsoft Azureのアカウントを登録する</t>
+    <rPh sb="23" eb="25">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>※無料登録なので、お金は発生しません。</t>
+    <rPh sb="1" eb="3">
+      <t>ムリョウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>カネ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ハッセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>＜イメージ＞</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>■事前処理（環境構築）</t>
+    <rPh sb="1" eb="3">
+      <t>ジゼン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>カンキョウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>コウチク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>②Visual Studio Codeのインストール</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>③TensorFlow、kerasのインストール</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>・PythonはAnacondaを使用</t>
+    <rPh sb="17" eb="19">
+      <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>・画像を登録するライブラリ（bingの検索API）を使用するためにアカウントが必要</t>
+    <rPh sb="1" eb="3">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>・画像解析に用いるためのライブラリ群</t>
+    <rPh sb="1" eb="3">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>カイセキ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>モチ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>グン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>bingのsearchAPIを使って画像収集</t>
+  </si>
+  <si>
+    <t>⇒画像はbingの画像検索で収集</t>
+    <rPh sb="1" eb="3">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>シュウシュウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>■データ抽出</t>
+    <rPh sb="4" eb="6">
+      <t>チュウシュツ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>画像より、データ変換を行う。</t>
+    <rPh sb="0" eb="2">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ヘンカン</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>⇒</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>RGBの値</t>
+    </r>
+    <rPh sb="5" eb="6">
+      <t>アタイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>[[0.8235294  0.8352941  0.7529412 ]</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>temp_img = load_img(targetImage, target_size=(64,64))</t>
+  </si>
+  <si>
+    <t>■学習データおよび検証データの作成</t>
+    <rPh sb="1" eb="3">
+      <t>ガクシュウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ケンショウ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>pip install tensorflow</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>X_train, X_test, y_train, y_test = train_test_split(X, Y, test_size=0.33, random_state=111)</t>
+  </si>
+  <si>
+    <t>[0.84705883 0.8666667  0.88235295]</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>model.add(Flatten())</t>
+  </si>
+  <si>
+    <t>model.add(Conv2D(32, (3, 3), padding='same',</t>
+  </si>
+  <si>
+    <t>input_shape=X_train.shape[1:]))</t>
+  </si>
+  <si>
+    <t>model.add(Activation('relu'))</t>
+  </si>
+  <si>
+    <t>model.add(Conv2D(32, (3, 3)))</t>
+  </si>
+  <si>
+    <t>model.add(MaxPooling2D(pool_size=(2, 2)))</t>
+  </si>
+  <si>
+    <t>model.add(Dropout(0.25))</t>
+  </si>
+  <si>
+    <t>model.add(Conv2D(64, (3, 3), padding='same'))</t>
+  </si>
+  <si>
+    <t>model.add(Conv2D(64, (3, 3)))</t>
+  </si>
+  <si>
+    <t>model.add(Dense(512))</t>
+  </si>
+  <si>
+    <t>model.add(Dropout(0.5))</t>
+  </si>
+  <si>
+    <t>model.add(Dense(2)) # クラスは2個</t>
+  </si>
+  <si>
+    <t>model.add(Activation('softmax'))</t>
+  </si>
+  <si>
+    <t>model.compile(loss='categorical_crossentropy',</t>
+  </si>
+  <si>
+    <t>optimizer='SGD',</t>
+  </si>
+  <si>
+    <t>metrics=['accuracy'])</t>
+  </si>
+  <si>
+    <t>history = model.fit(X_train, y_train, batch_size=5, epochs=50,</t>
+  </si>
+  <si>
+    <t>validation_data = (X_test, y_test), verbose = 1)</t>
+  </si>
+  <si>
+    <t>・実行</t>
+    <rPh sb="1" eb="3">
+      <t>ジッコウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>・モデルの作成</t>
+    <rPh sb="5" eb="7">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>・グラフにプロット</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>plt.show()</t>
+  </si>
+  <si>
+    <t>plt.plot(history.history['acc'])</t>
+  </si>
+  <si>
+    <t>plt.plot(history.history['val_acc'])</t>
+  </si>
+  <si>
+    <t>plt.plot(history.history['loss'])</t>
+  </si>
+  <si>
+    <t>plt.plot(history.history['val_loss'])</t>
+  </si>
+  <si>
+    <t>plt.title('model accuracy')</t>
+  </si>
+  <si>
+    <t>plt.xlabel('epoch（回数）')</t>
+  </si>
+  <si>
+    <t>plt.ylabel('精度/損失')</t>
+  </si>
+  <si>
+    <t>plt.legend(['acc', 'val_acc', 'loss', 'val_loss'], loc='lower right')</t>
+  </si>
+  <si>
+    <t>・batch_size　⇒</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>・epochs　⇒　学習回数</t>
+    <rPh sb="10" eb="12">
+      <t>ガクシュウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>カイスウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>・verbose　⇒　コンソール出力</t>
+    <rPh sb="16" eb="18">
+      <t>シュツリョク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>acc = 精度</t>
+    <rPh sb="6" eb="8">
+      <t>セイド</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>val_acc = 検証データの精度</t>
+    <rPh sb="10" eb="12">
+      <t>ケンショウ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>セイド</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>loss = 損失</t>
+    <rPh sb="7" eb="9">
+      <t>ソンシツ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>val_loss = 検証データの損失</t>
+    <rPh sb="11" eb="13">
+      <t>ケンショウ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ソンシツ</t>
+    </rPh>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -438,7 +1080,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -470,6 +1112,41 @@
       <family val="3"/>
       <charset val="128"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="9"/>
+      <color theme="10"/>
+      <name val="Meiryo UI"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -488,12 +1165,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -503,8 +1183,15 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2264,14 +2951,14 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>173182</xdr:colOff>
-      <xdr:row>131</xdr:row>
-      <xdr:rowOff>8659</xdr:rowOff>
+      <xdr:row>130</xdr:row>
+      <xdr:rowOff>129884</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>91787</xdr:colOff>
       <xdr:row>132</xdr:row>
-      <xdr:rowOff>155863</xdr:rowOff>
+      <xdr:rowOff>121225</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2286,7 +2973,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1567296" y="20426795"/>
+          <a:off x="1567296" y="20392157"/>
           <a:ext cx="914400" cy="303068"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2572,6 +3259,1588 @@
 </file>
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>166809</xdr:colOff>
+      <xdr:row>125</xdr:row>
+      <xdr:rowOff>86592</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="図 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5A1B38C3-D2D3-43F6-A599-9C8523119DC9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="398319" y="11845637"/>
+          <a:ext cx="7137376" cy="5074228"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>121228</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>72316</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="図 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FC944DFD-CC73-484E-8DE2-0FAF1C1ED2F0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="398318" y="1246909"/>
+          <a:ext cx="7290955" cy="3813043"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>166809</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>86592</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="図 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{901A0232-E51F-4F09-A530-907664EDCC43}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="398319" y="6234546"/>
+          <a:ext cx="7137376" cy="5074228"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>69271</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>51955</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>95248</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="正方形/長方形 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B47201B6-9B3B-4D53-B3E1-8C54CC1E64B3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3255816" y="9403773"/>
+          <a:ext cx="424296" cy="259772"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>69272</xdr:colOff>
+      <xdr:row>116</xdr:row>
+      <xdr:rowOff>86591</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>8658</xdr:colOff>
+      <xdr:row>118</xdr:row>
+      <xdr:rowOff>34636</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="正方形/長方形 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6E932FAE-0EA4-4683-89D3-D967CFC22AD2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3056658" y="15517091"/>
+          <a:ext cx="1134341" cy="259772"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>129</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>190501</xdr:colOff>
+      <xdr:row>161</xdr:row>
+      <xdr:rowOff>103437</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="図 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7511737-3013-4FDB-AC3C-4A246B520C6B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="398319" y="20106410"/>
+          <a:ext cx="7161068" cy="5091072"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>123824</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>104</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="正方形/長方形 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E0813163-5DAA-45C8-AA7A-8236DE1F0F07}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="457200" y="21316949"/>
+          <a:ext cx="6115050" cy="3676651"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>219075</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="正方形/長方形 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E31C7B7D-1F0F-4A75-89AF-8D195E969E9C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="819150" y="2600325"/>
+          <a:ext cx="5829300" cy="1809750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>104</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="正方形/長方形 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{733CE09C-50AA-4F5D-89F4-C16B5357B5F5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="638175" y="23736300"/>
+          <a:ext cx="5829300" cy="1152525"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent5">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="889987" cy="328423"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="テキスト ボックス 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1BC8E411-FF1C-4D83-9B32-7DA7996486B1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="771525" y="2790825"/>
+          <a:ext cx="889987" cy="328423"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>全量データ</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="889987" cy="328423"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="テキスト ボックス 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FA3D8A7C-6A75-4EEC-961C-60EAA7CB40E3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="885825" y="3171825"/>
+          <a:ext cx="889987" cy="328423"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>学習データ</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="889987" cy="328423"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="テキスト ボックス 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A53A5017-4B60-43A8-ADCA-0951EA48712B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="666750" y="23774400"/>
+          <a:ext cx="889987" cy="328423"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>検証データ</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2372060" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="テキスト ボックス 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B77F671D-BA4D-4D43-AFCB-03FCAFC65F75}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1866900" y="3209925"/>
+          <a:ext cx="2372060" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>[0.99607843 0.99607843 0.99607843]</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2372060" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="テキスト ボックス 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CBEC04D1-5A32-4E50-8E53-0D2F2BC416A8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1866900" y="3419475"/>
+          <a:ext cx="2372060" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>[0.9019608  0.89411765 0.90588236]</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>200024</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>238124</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>50</xdr:col>
+      <xdr:colOff>47624</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>145925</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="18" name="図 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5D508666-C701-49A3-9818-8A74C5FCC91A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="800099" y="1666874"/>
+          <a:ext cx="9248775" cy="6575301"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>52</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>182719</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="19" name="図 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{13E3A06B-1EB1-4A39-90CA-B96E2D11CDBD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="400050" y="10239376"/>
+          <a:ext cx="10172700" cy="5421468"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>125003</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>115711</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="21" name="図 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8512DA5B-5DE1-4D35-919C-307B17806395}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="400050" y="18097500"/>
+          <a:ext cx="2325278" cy="1306336"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="22" name="矢印: 右 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{86A14FFC-8BFF-4A6A-A2C0-C4FA9BDA769E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3590925" y="18087975"/>
+          <a:ext cx="1495425" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent4">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="325730" cy="564514"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="23" name="テキスト ボックス 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{45D40156-4A11-418A-A1BB-E85C3A73F7A3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1666875" y="22336125"/>
+          <a:ext cx="325730" cy="564514"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>・</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>・</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="184731" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="24" name="テキスト ボックス 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CDF8653F-F4A4-4925-A32E-911CE8A19AE7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7962900" y="20193000"/>
+          <a:ext cx="184731" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>101</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2332433" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="25" name="テキスト ボックス 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FBCE4D5A-768E-4FC4-BF06-B9E1A0E1D980}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1533525" y="24164925"/>
+          <a:ext cx="2332433" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>[0.84705883 0.8666667  0.88235295]</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2253181" cy="276225"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="26" name="テキスト ボックス 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B9B6B9FF-6E5B-4C83-B5B0-79055CDEC452}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1533525" y="23955375"/>
+          <a:ext cx="2253181" cy="276225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>[0.8235294  0.8352941  0.7529412 ]</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>102</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="325730" cy="564514"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="27" name="テキスト ボックス 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5B815FBA-E048-48C9-9009-C50F9B2BAC1D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1543050" y="24336375"/>
+          <a:ext cx="325730" cy="564514"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>・</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>・</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="415498" cy="478593"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="28" name="テキスト ボックス 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EED29D4E-ABA6-4778-8487-6F4C342A44EA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6800850" y="22383750"/>
+          <a:ext cx="415498" cy="478593"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800" b="1"/>
+            <a:t>２</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>101</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="301686" cy="374141"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="29" name="テキスト ボックス 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4B55EF7E-C045-4584-9F7E-37E735D9DD24}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6867525" y="24050625"/>
+          <a:ext cx="301686" cy="374141"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800" b="1"/>
+            <a:t>1</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>158</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>51447</xdr:colOff>
+      <xdr:row>176</xdr:row>
+      <xdr:rowOff>84591</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="31" name="図 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4C43256F-B81C-4EE5-9643-51C79541B507}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="600075" y="37623750"/>
+          <a:ext cx="5852172" cy="4370841"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>156</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>175</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="33" name="直線コネクタ 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{710DC908-3981-4FE0-BED6-EA9E333445B5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3714750" y="37318950"/>
+          <a:ext cx="0" cy="4429125"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>171</xdr:row>
+      <xdr:rowOff>219075</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>174</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="35" name="正方形/長方形 34">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{785F9070-6673-44E8-8EB0-6F6B4E12A63A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1504950" y="40938450"/>
+          <a:ext cx="1924050" cy="600075"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>過学習と判断されるのは</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>25</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>回ほど</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -3024,7 +5293,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -3213,6 +5482,1014 @@
             <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
             <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
           </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>115</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>164524</xdr:colOff>
+      <xdr:row>134</xdr:row>
+      <xdr:rowOff>128940</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="22" name="図 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EFFB0448-60D0-4422-B085-73A1BCB2F18C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="398319" y="17924319"/>
+          <a:ext cx="4346864" cy="3090348"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>15417</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>8660</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="図 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2608CAFA-875D-4C5C-8296-9E5B10CFA5B5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="398319" y="6390410"/>
+          <a:ext cx="4396916" cy="3125932"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>191167</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>103910</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="図 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{53C5036E-9133-4562-9DDE-11DBC97EAC37}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="398318" y="779319"/>
+          <a:ext cx="7161735" cy="5091546"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>34637</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>147204</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>69273</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>8658</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="正方形/長方形 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F0C3FF46-79BF-4EB8-8E75-07793F16788F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="831273" y="1705840"/>
+          <a:ext cx="2026227" cy="484909"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>43294</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>43295</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>121226</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>25977</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="正方形/長方形 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CBE25960-5022-48AE-8028-E00635664C28}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3030680" y="1601931"/>
+          <a:ext cx="2667001" cy="606137"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>giri-choco</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>に</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>計画フォルダと環境構築</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>.xlsx</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>を追加</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>164523</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>103909</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>25978</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>129886</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="正方形/長方形 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B83475BC-17D8-445E-B756-0050E214A24A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="363682" y="6961909"/>
+          <a:ext cx="259773" cy="181841"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>17319</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>95249</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>121227</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="正方形/長方形 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BBD717EE-87CF-4A11-A776-954C24BDF4EC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="614796" y="7264976"/>
+          <a:ext cx="1298863" cy="155865"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>112569</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>164522</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>129888</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="正方形/長方形 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BF934726-6277-4BD5-8E65-26F979F66A57}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="7438160"/>
+          <a:ext cx="1558636" cy="329046"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>①ソース管理を押下</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>112568</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>34636</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>60614</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>25977</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="正方形/長方形 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EA8809CB-4EE6-4D9D-BC17-B8AB10FAFE60}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1905000" y="7204363"/>
+          <a:ext cx="2138796" cy="303069"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900"/>
+            <a:t>②</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900"/>
+            <a:t>+</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900"/>
+            <a:t>を押下して、</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="900">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>変更</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>の</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900"/>
+            <a:t>ステージング</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>181840</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>25978</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>197256</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>34637</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="図 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C4335616-159F-4001-9AD2-4D2A88FBD6A0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="380999" y="9689523"/>
+          <a:ext cx="4396916" cy="3125932"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>17318</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>69273</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>121226</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>69274</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="正方形/長方形 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1FDB229E-58EC-41A2-BFDB-DA0E123D10A4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="614795" y="10356273"/>
+          <a:ext cx="1298863" cy="155865"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>69272</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>17318</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>17318</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>8660</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="正方形/長方形 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{55867D7B-5B7F-4490-A3EA-6D80FB9F3533}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2060863" y="10304318"/>
+          <a:ext cx="2138796" cy="303069"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900"/>
+            <a:t>②</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900"/>
+            <a:t>Message</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900"/>
+            <a:t>を入れて</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900"/>
+            <a:t>Ctrl +  Enter</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>129887</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>121228</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>129887</xdr:colOff>
+      <xdr:row>109</xdr:row>
+      <xdr:rowOff>118928</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="図 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8F743CA7-8167-45D5-88C7-3BE4C7CC9157}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="329046" y="13993092"/>
+          <a:ext cx="4381500" cy="3114972"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>147205</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>51954</xdr:colOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>77932</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="正方形/長方形 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A67AFF25-47EB-459F-B7E5-7FF821DF9182}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="545523" y="14183591"/>
+          <a:ext cx="1298863" cy="857250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>69272</xdr:colOff>
+      <xdr:row>133</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>134</xdr:row>
+      <xdr:rowOff>60614</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="正方形/長方形 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EA102C05-68D2-47BB-8A88-4C2A515EC06A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2857499" y="20729864"/>
+          <a:ext cx="917865" cy="216477"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>51955</xdr:colOff>
+      <xdr:row>133</xdr:row>
+      <xdr:rowOff>69273</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>173184</xdr:colOff>
+      <xdr:row>134</xdr:row>
+      <xdr:rowOff>129887</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="23" name="正方形/長方形 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BEC6ABFE-71EC-44B7-8022-45B56B5463A5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1844387" y="20799137"/>
+          <a:ext cx="917865" cy="216477"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -3518,10 +6795,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEAD90E0-A8EC-4C18-985A-B773C6149596}">
-  <dimension ref="B2:C9"/>
+  <dimension ref="B2:C12"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="110" zoomScaleNormal="100" zoomScaleSheetLayoutView="110" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="12" x14ac:dyDescent="0.4"/>
@@ -3557,6 +6834,16 @@
     <row r="9" spans="2:3" x14ac:dyDescent="0.4">
       <c r="C9" s="1" t="s">
         <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B11" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="C12" s="1" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -3571,12 +6858,53 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D76AF24-60B5-4E1F-AA0C-B02385A19196}">
+  <dimension ref="A1:A6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A6" t="s">
+        <v>79</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{632AB6C3-B8FE-4E2A-B215-803ECB096B35}">
-  <dimension ref="B2:D228"/>
+  <dimension ref="B2:D230"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A214" zoomScale="110" zoomScaleNormal="100" zoomScaleSheetLayoutView="110" workbookViewId="0">
-      <selection activeCell="D229" sqref="D229"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A126" zoomScale="110" zoomScaleNormal="100" zoomScaleSheetLayoutView="110" workbookViewId="0">
+      <selection activeCell="AP149" sqref="AP149"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="12" x14ac:dyDescent="0.4"/>
@@ -3622,6 +6950,11 @@
     <row r="228" spans="3:4" x14ac:dyDescent="0.4">
       <c r="D228" s="1" t="s">
         <v>32</v>
+      </c>
+    </row>
+    <row r="230" spans="3:4" x14ac:dyDescent="0.4">
+      <c r="C230" s="1" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -3641,8 +6974,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C9D74BD-0248-40BA-88FA-4FFB48C27383}">
   <dimension ref="B2:D218"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A121" zoomScale="110" zoomScaleNormal="100" zoomScaleSheetLayoutView="110" workbookViewId="0">
-      <selection activeCell="Z121" sqref="Z121"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A192" zoomScale="110" zoomScaleNormal="100" zoomScaleSheetLayoutView="110" workbookViewId="0">
+      <selection activeCell="AD210" sqref="AD210"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="12" x14ac:dyDescent="0.4"/>
@@ -3742,11 +7075,519 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FF0D133-AE77-42F8-89FB-27B6F9140031}">
+  <dimension ref="B2:C128"/>
+  <sheetViews>
+    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A47" zoomScale="110" zoomScaleNormal="100" zoomScaleSheetLayoutView="110" workbookViewId="0">
+      <selection activeCell="A70" sqref="A70"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="12" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="16384" width="2.625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B2" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="C3" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B5" s="2"/>
+      <c r="C5" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="C6" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="C7" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B8" s="2"/>
+    </row>
+    <row r="36" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C36" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="37" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C37" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="39" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C39" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="91" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B91" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="92" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="C92" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="128" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C128" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="69" orientation="portrait" r:id="rId1"/>
+  <rowBreaks count="3" manualBreakCount="3">
+    <brk id="89" max="43" man="1"/>
+    <brk id="183" max="43" man="1"/>
+    <brk id="259" max="43" man="1"/>
+  </rowBreaks>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9ECBDA8-2700-46AD-8100-AB9ECE3627F9}">
+  <dimension ref="B2:C9"/>
+  <sheetViews>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="110" zoomScaleNormal="100" zoomScaleSheetLayoutView="110" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="12" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="16384" width="2.625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B2" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="C3" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="C4" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B5" s="2"/>
+      <c r="C5" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B6" s="2"/>
+      <c r="C6" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="C8" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B9" s="2"/>
+      <c r="C9" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <hyperlinks>
+    <hyperlink ref="C9" r:id="rId1" xr:uid="{C53C88EC-BE9F-4158-9921-2666264B31A9}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="69" orientation="portrait" r:id="rId2"/>
+  <rowBreaks count="3" manualBreakCount="3">
+    <brk id="90" max="43" man="1"/>
+    <brk id="184" max="43" man="1"/>
+    <brk id="260" max="43" man="1"/>
+  </rowBreaks>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CACFCD47-E8F2-431F-A167-72C825308B67}">
+  <dimension ref="B1:AH175"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A161" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="D177" sqref="D177"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="1" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="2" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="C2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="D3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="D4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="C6" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="D7" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="C37" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="38" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="D38" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="39" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="D39" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="41" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B41" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="42" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="C42" s="4" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="43" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="C43" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="75" spans="2:30" x14ac:dyDescent="0.4">
+      <c r="B75" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="76" spans="2:30" x14ac:dyDescent="0.4">
+      <c r="C76" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="78" spans="2:30" x14ac:dyDescent="0.4">
+      <c r="C78" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="79" spans="2:30" x14ac:dyDescent="0.4">
+      <c r="AD79" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="80" spans="2:30" x14ac:dyDescent="0.4">
+      <c r="AD80" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="81" spans="2:30" x14ac:dyDescent="0.4">
+      <c r="AD81" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="82" spans="2:30" x14ac:dyDescent="0.4">
+      <c r="AD82" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="83" spans="2:30" x14ac:dyDescent="0.4">
+      <c r="AD83" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="84" spans="2:30" x14ac:dyDescent="0.4">
+      <c r="AD84" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="86" spans="2:30" x14ac:dyDescent="0.4">
+      <c r="B86" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="87" spans="2:30" x14ac:dyDescent="0.4">
+      <c r="C87" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="89" spans="2:30" x14ac:dyDescent="0.4">
+      <c r="C89" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="107" spans="3:4" x14ac:dyDescent="0.4">
+      <c r="C107" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="108" spans="3:4" x14ac:dyDescent="0.4">
+      <c r="D108" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="109" spans="3:4" x14ac:dyDescent="0.4">
+      <c r="D109" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="110" spans="3:4" x14ac:dyDescent="0.4">
+      <c r="D110" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="111" spans="3:4" x14ac:dyDescent="0.4">
+      <c r="D111" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="112" spans="3:4" x14ac:dyDescent="0.4">
+      <c r="D112" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="113" spans="4:4" x14ac:dyDescent="0.4">
+      <c r="D113" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="114" spans="4:4" x14ac:dyDescent="0.4">
+      <c r="D114" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="116" spans="4:4" x14ac:dyDescent="0.4">
+      <c r="D116" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="117" spans="4:4" x14ac:dyDescent="0.4">
+      <c r="D117" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="118" spans="4:4" x14ac:dyDescent="0.4">
+      <c r="D118" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="119" spans="4:4" x14ac:dyDescent="0.4">
+      <c r="D119" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="120" spans="4:4" x14ac:dyDescent="0.4">
+      <c r="D120" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="121" spans="4:4" x14ac:dyDescent="0.4">
+      <c r="D121" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="123" spans="4:4" x14ac:dyDescent="0.4">
+      <c r="D123" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="124" spans="4:4" x14ac:dyDescent="0.4">
+      <c r="D124" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="125" spans="4:4" x14ac:dyDescent="0.4">
+      <c r="D125" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="126" spans="4:4" x14ac:dyDescent="0.4">
+      <c r="D126" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="127" spans="4:4" x14ac:dyDescent="0.4">
+      <c r="D127" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="128" spans="4:4" x14ac:dyDescent="0.4">
+      <c r="D128" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="130" spans="3:4" x14ac:dyDescent="0.4">
+      <c r="D130" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="131" spans="3:4" x14ac:dyDescent="0.4">
+      <c r="D131" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="132" spans="3:4" x14ac:dyDescent="0.4">
+      <c r="D132" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="134" spans="3:4" x14ac:dyDescent="0.4">
+      <c r="C134" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="135" spans="3:4" x14ac:dyDescent="0.4">
+      <c r="D135" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="136" spans="3:4" x14ac:dyDescent="0.4">
+      <c r="D136" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="138" spans="3:4" x14ac:dyDescent="0.4">
+      <c r="D138" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="139" spans="3:4" x14ac:dyDescent="0.4">
+      <c r="D139" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="140" spans="3:4" x14ac:dyDescent="0.4">
+      <c r="D140" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="148" spans="3:4" x14ac:dyDescent="0.4">
+      <c r="C148" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="149" spans="3:4" x14ac:dyDescent="0.4">
+      <c r="D149" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="150" spans="3:4" x14ac:dyDescent="0.4">
+      <c r="D150" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="151" spans="3:4" x14ac:dyDescent="0.4">
+      <c r="D151" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="152" spans="3:4" x14ac:dyDescent="0.4">
+      <c r="D152" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="153" spans="3:4" x14ac:dyDescent="0.4">
+      <c r="D153" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="154" spans="3:4" x14ac:dyDescent="0.4">
+      <c r="D154" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="155" spans="3:4" x14ac:dyDescent="0.4">
+      <c r="D155" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="156" spans="3:4" x14ac:dyDescent="0.4">
+      <c r="D156" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="157" spans="3:4" x14ac:dyDescent="0.4">
+      <c r="D157" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="172" spans="34:34" x14ac:dyDescent="0.4">
+      <c r="AH172" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="173" spans="34:34" x14ac:dyDescent="0.4">
+      <c r="AH173" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="174" spans="34:34" x14ac:dyDescent="0.4">
+      <c r="AH174" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="175" spans="34:34" x14ac:dyDescent="0.4">
+      <c r="AH175" t="s">
+        <v>137</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="54" orientation="portrait" r:id="rId1"/>
+  <rowBreaks count="2" manualBreakCount="2">
+    <brk id="73" max="56" man="1"/>
+    <brk id="146" max="56" man="1"/>
+  </rowBreaks>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8371443-9204-49B6-B682-E01118E9C229}">
-  <dimension ref="B2:AB133"/>
+  <dimension ref="B2:B169"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A154" zoomScale="110" zoomScaleNormal="100" zoomScaleSheetLayoutView="110" workbookViewId="0">
-      <selection activeCell="B154" sqref="B154"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A116" zoomScale="110" zoomScaleNormal="100" zoomScaleSheetLayoutView="110" workbookViewId="0">
+      <selection activeCell="B139" sqref="B139"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="12" x14ac:dyDescent="0.4"/>
@@ -3780,57 +7621,59 @@
         <v>36</v>
       </c>
     </row>
-    <row r="78" spans="2:28" x14ac:dyDescent="0.4">
+    <row r="78" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B78" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="79" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B79" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="79" spans="2:28" x14ac:dyDescent="0.4">
-      <c r="B79" s="1" t="s">
+    <row r="80" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B80" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="AB79" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="80" spans="2:28" x14ac:dyDescent="0.4">
-      <c r="B80" s="1" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="126" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B126" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="127" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B127" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="128" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B128" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="130" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B130" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="131" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B131" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="132" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B132" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="133" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B133" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="169" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B169" s="1" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -3849,12 +7692,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F53A1E47-D587-4EE8-BE3D-E1BB7255B210}">
   <dimension ref="B2:C6"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A26" zoomScale="110" zoomScaleNormal="100" zoomScaleSheetLayoutView="110" workbookViewId="0">
-      <selection activeCell="M49" sqref="M49"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="110" zoomScaleNormal="100" zoomScaleSheetLayoutView="110" workbookViewId="0">
+      <selection activeCell="R19" sqref="R19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="12" x14ac:dyDescent="0.4"/>
@@ -3897,4 +7740,59 @@
   </rowBreaks>
   <drawing r:id="rId3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C2B650C-15DA-4141-B9A0-CC1AA5D28550}">
+  <dimension ref="B2:C114"/>
+  <sheetViews>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="110" zoomScaleNormal="100" zoomScaleSheetLayoutView="110" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="12" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="16384" width="2.625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B2" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="C3" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B4" s="2"/>
+      <c r="C4" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="40" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C40" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="112" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C112" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="114" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C114" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="69" orientation="portrait" r:id="rId1"/>
+  <rowBreaks count="3" manualBreakCount="3">
+    <brk id="89" max="43" man="1"/>
+    <brk id="165" max="43" man="1"/>
+    <brk id="241" max="43" man="1"/>
+  </rowBreaks>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>